--- a/latihan sort filter, garfik, sumif, sumifs, averageif.xlsx
+++ b/latihan sort filter, garfik, sumif, sumifs, averageif.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belajar excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belajar excel\pertemuan-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sort And Filter" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sort And Filter'!$H$3:$K$10</definedName>
+    <definedName name="_xlchart.0" hidden="1">Tugas!$G$47</definedName>
+    <definedName name="_xlchart.1" hidden="1">Tugas!$G$48</definedName>
+    <definedName name="_xlchart.2" hidden="1">Tugas!$G$49</definedName>
+    <definedName name="_xlchart.3" hidden="1">Tugas!$H$46:$J$46</definedName>
+    <definedName name="_xlchart.4" hidden="1">Tugas!$H$47:$J$47</definedName>
+    <definedName name="_xlchart.5" hidden="1">Tugas!$H$48:$J$48</definedName>
+    <definedName name="_xlchart.6" hidden="1">Tugas!$H$49:$J$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -334,7 +341,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -397,6 +403,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A58F-418A-95E0-8CA596910CBC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -412,6 +423,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A58F-418A-95E0-8CA596910CBC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -427,6 +443,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A58F-418A-95E0-8CA596910CBC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -480,6 +501,418 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jakarta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$H$46:$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$47:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>120000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6090-4997-96E5-BAAAC70D2BB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bandung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$H$46:$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$48:$J$48</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6090-4997-96E5-BAAAC70D2BB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Surabaya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$H$46:$J$46</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$49:$J$49</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6090-4997-96E5-BAAAC70D2BB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="463557616"/>
+        <c:axId val="463554336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="463557616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463554336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="463554336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463557616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -520,6 +953,956 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5766791183226402E-2"/>
+          <c:y val="0.28909646464241423"/>
+          <c:w val="0.87731305939690196"/>
+          <c:h val="0.43455444349486955"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$H$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rata-rata Penjualan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$G$54:$G$56</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Andi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Budi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$54:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE10-4CAD-9DBC-9429F5C8FA13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$H$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rata-rata Penjualan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$G$61:$G$63</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jakarta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bandung</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Surabaya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$61:$H$63</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>615000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>615000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>615000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6168-4BD2-AF9F-A4FDB6E058D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="464403576"/>
+        <c:axId val="464399968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="464403576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464399968"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464399968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464403576"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17552809779573364"/>
+          <c:y val="0.20973202762470097"/>
+          <c:w val="0.67444429794888028"/>
+          <c:h val="0.61787909851405942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$H$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Penjualan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$G$68:$G$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$68:$H$70</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>107500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6660-4326-BE01-0515C0F5813F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="468020744"/>
+        <c:axId val="468003688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="468020744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468003688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="468003688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468020744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1293,7 +2676,2393 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Penjualan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$G$5:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Jakarta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bandung</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Surabaya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$5:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>275000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F122-486E-9471-740F3124F837}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27183572910541182"/>
+          <c:y val="0.23223596027141061"/>
+          <c:w val="0.68180412323237416"/>
+          <c:h val="0.50156270038271678"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Penjualan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$G$12:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$12:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>215000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A777-4FD1-A8B9-964DB3C27A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="463564832"/>
+        <c:axId val="463561880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="463564832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463561880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="463561880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463564832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24384829235558564"/>
+          <c:y val="0.17816441595650556"/>
+          <c:w val="0.73123261760324887"/>
+          <c:h val="0.67539365346793645"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Penjualan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$G$19:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Andi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Budi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$19:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>285000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B331-4CF2-BEFF-FCB5D829DAB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="464388160"/>
+        <c:axId val="464396032"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="464388160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464396032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464396032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464388160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jakarta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$G$26:$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Andi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Budi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$26:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>195000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EB3-4145-ABE5-3A7EA311DC20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bandung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$G$26:$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Andi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Budi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$I$26:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>90000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EB3-4145-ABE5-3A7EA311DC20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Surabaya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$G$26:$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Andi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Budi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$J$26:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1EB3-4145-ABE5-3A7EA311DC20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="467991552"/>
+        <c:axId val="467995816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="467991552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467995816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="467995816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467991552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jakarta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$H$32:$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$33:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>120000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AACC-4289-8125-03093662C993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bandung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$H$32:$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$34:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AACC-4289-8125-03093662C993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Surabaya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$H$32:$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$35:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AACC-4289-8125-03093662C993}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="459032008"/>
+        <c:axId val="459032992"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="459032008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459032992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459032992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459032008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$H$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$40:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>120000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37B4-4289-94C7-7C7E992D7921}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$H$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$41:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37B4-4289-94C7-7C7E992D7921}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tugas!$G$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Citra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tugas!$H$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Honda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzuki</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yamaha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tugas!$H$42:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37B4-4289-94C7-7C7E992D7921}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="465277128"/>
+        <c:axId val="465272864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="465277128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465272864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465272864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465277128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1413,6 +5182,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -1932,8 +5941,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2041,6 +6050,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2051,6 +6065,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2082,6 +6101,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2435,7 +6457,5018 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="266">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3025,6 +12058,311 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251113</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>164522</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320387</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580161</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60615</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173183</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199161</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>337706</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>528205</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>510886</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>181841</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>39832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>744682</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510887</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320387</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>109105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>164523</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4060,7 +13398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G18" sqref="G18:J21"/>
     </sheetView>
   </sheetViews>
@@ -5112,8 +14450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71:H71"/>
+    <sheetView topLeftCell="D61" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5932,5 +15270,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>